--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_15_6.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_15_6.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_15_6_24</t>
+          <t>model_15_6_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9963517459191374</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9967866994031914</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9971158606279364</v>
+        <v>0.9999562367182823</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9969068683441608</v>
+        <v>0.9999258838420024</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9971178229237797</v>
+        <v>0.9999443430046275</v>
       </c>
       <c r="G2" t="n">
-        <v>0.003405485044639175</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002999475059526144</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002402852128720621</v>
+        <v>4.645364067944474e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.004368966361000102</v>
+        <v>5.088832309617204e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003385909244860361</v>
+        <v>4.867098188780838e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006618792597518466</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05835653386416276</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N2" t="n">
-        <v>1.009728677548967</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O2" t="n">
-        <v>0.06084089232543869</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P2" t="n">
-        <v>77.36473579764827</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q2" t="n">
-        <v>117.5876380182989</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_15_6_23</t>
+          <t>model_15_6_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9962782377900303</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C3" t="n">
-        <v>0.996725864247066</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9970587955523056</v>
+        <v>0.9999562367182823</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9968452656927238</v>
+        <v>0.9999258838420024</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9970605547091105</v>
+        <v>0.9999443430046275</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003474101656526678</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.003056262007414455</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002450394539390333</v>
+        <v>4.645364067944474e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>0.004455978470998082</v>
+        <v>5.088832309617204e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.003453186505194207</v>
+        <v>4.867098188780838e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006686447104785187</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M3" t="n">
-        <v>0.05894151047035254</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N3" t="n">
-        <v>1.009924699226586</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O3" t="n">
-        <v>0.06145077259682249</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P3" t="n">
-        <v>77.32483869898772</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q3" t="n">
-        <v>117.5477409196383</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_15_6_22</t>
+          <t>model_15_6_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9962032168358684</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9966636606479043</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9970005572586073</v>
+        <v>0.9999562367182823</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9967824075912624</v>
+        <v>0.9999258838420024</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9970021157473469</v>
+        <v>0.9999443430046275</v>
       </c>
       <c r="G4" t="n">
-        <v>0.003544130424197556</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.003114326336809454</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002498914388792026</v>
+        <v>4.645364067944474e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>0.004544763870831684</v>
+        <v>5.088832309617204e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.003521839129811855</v>
+        <v>4.867098188780838e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006754778156559321</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0595325996761233</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N4" t="n">
-        <v>1.010124755104351</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O4" t="n">
-        <v>0.06206702569380625</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P4" t="n">
-        <v>77.28492489101262</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q4" t="n">
-        <v>117.5078271116632</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_15_6_21</t>
+          <t>model_15_6_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9961267627740185</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C5" t="n">
-        <v>0.996600123833068</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9969411959186897</v>
+        <v>0.9999562367182823</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9967184184966754</v>
+        <v>0.9999258838420024</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9969425986483801</v>
+        <v>0.9999443430046275</v>
       </c>
       <c r="G5" t="n">
-        <v>0.003615496934989019</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.003173635164515424</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002548369877443638</v>
+        <v>4.645364067944474e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.004635146768434334</v>
+        <v>5.088832309617204e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.003591758322938986</v>
+        <v>4.867098188780838e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006823744873241445</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M5" t="n">
-        <v>0.06012900244465244</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N5" t="n">
-        <v>1.010328632602618</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0626888185629156</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P5" t="n">
-        <v>77.24505193618313</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q5" t="n">
-        <v>117.4679541568338</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_15_6_20</t>
+          <t>model_15_6_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.996048729406586</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C6" t="n">
-        <v>0.996535147156424</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9968806109712396</v>
+        <v>0.9999562367182823</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9966531923682235</v>
+        <v>0.9999258838420024</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9968819040059327</v>
+        <v>0.9999443430046275</v>
       </c>
       <c r="G6" t="n">
-        <v>0.003688337658218343</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00323428804001606</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002598844785611691</v>
+        <v>4.645364067944474e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>0.004727276943535861</v>
+        <v>5.088832309617204e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>0.003663060864573776</v>
+        <v>4.867098188780838e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006893420695802142</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M6" t="n">
-        <v>0.06073168578442675</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N6" t="n">
-        <v>1.010536721582437</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O6" t="n">
-        <v>0.06331715938019061</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P6" t="n">
-        <v>77.20515884312547</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q6" t="n">
-        <v>117.4280610637761</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_15_6_19</t>
+          <t>model_15_6_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9959692113192915</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9964688035437615</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D7" t="n">
-        <v>0.996818787209991</v>
+        <v>0.9999562367182823</v>
       </c>
       <c r="E7" t="n">
-        <v>0.996586837897956</v>
+        <v>0.9999258838420024</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9968200917701694</v>
+        <v>0.9999443430046275</v>
       </c>
       <c r="G7" t="n">
-        <v>0.003762564302267065</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.003296216890288401</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002650351782035237</v>
+        <v>4.645364067944474e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.004821000871501664</v>
+        <v>5.088832309617204e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.003735676326768451</v>
+        <v>4.867098188780838e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.006963766575423247</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0613397448826376</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N7" t="n">
-        <v>1.010748769815223</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O7" t="n">
-        <v>0.06395110481306815</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P7" t="n">
-        <v>77.16530911749928</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q7" t="n">
-        <v>117.3882113381499</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_15_6_18</t>
+          <t>model_15_6_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9958880638774285</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9964009671589613</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9967556913508895</v>
+        <v>0.9999562367182823</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9965192047014303</v>
+        <v>0.9999258838420024</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9967570597326352</v>
+        <v>0.9999443430046275</v>
       </c>
       <c r="G8" t="n">
-        <v>0.003838311877285219</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.003359539177826255</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002702918596532434</v>
+        <v>4.645364067944474e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0049165309663652</v>
+        <v>5.088832309617204e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.003809724781448818</v>
+        <v>4.867098188780838e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0070347988461196</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M8" t="n">
-        <v>0.06195411106040679</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N8" t="n">
-        <v>1.010965162993524</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O8" t="n">
-        <v>0.06459162583093828</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P8" t="n">
-        <v>77.12544524866388</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q8" t="n">
-        <v>117.3483474693145</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_15_6_17</t>
+          <t>model_15_6_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9958053161002604</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C9" t="n">
-        <v>0.996331676665583</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9966913412523617</v>
+        <v>0.9999562367182823</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9964503088736025</v>
+        <v>0.9999258838420024</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9966928239015127</v>
+        <v>0.9999443430046275</v>
       </c>
       <c r="G9" t="n">
-        <v>0.003915553295064</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.003424218811893819</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002756530350780091</v>
+        <v>4.645364067944474e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.00501384449442813</v>
+        <v>5.088832309617204e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.003885187422604111</v>
+        <v>4.867098188780838e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.007106508437860686</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M9" t="n">
-        <v>0.06257438209893885</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N9" t="n">
-        <v>1.011185823732639</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O9" t="n">
-        <v>0.06523830309171871</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P9" t="n">
-        <v>77.0855972651222</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q9" t="n">
-        <v>117.3084994857728</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_15_6_16</t>
+          <t>model_15_6_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9957209147084166</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C10" t="n">
-        <v>0.996260834375247</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9966256741392727</v>
+        <v>0.9999562367182823</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9963800438412498</v>
+        <v>0.9999258838420024</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9966272979490035</v>
+        <v>0.9999443430046275</v>
       </c>
       <c r="G10" t="n">
-        <v>0.003994338289557166</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00349034698030524</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002811239344388775</v>
+        <v>4.645364067944474e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.005113091987538961</v>
+        <v>5.088832309617204e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>0.003962165665963868</v>
+        <v>4.867098188780838e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.007178938266500861</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M10" t="n">
-        <v>0.06320077760247231</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N10" t="n">
-        <v>1.011410894110889</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O10" t="n">
-        <v>0.06589136554865505</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P10" t="n">
-        <v>77.04575469627372</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q10" t="n">
-        <v>117.2686569169243</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_15_6_15</t>
+          <t>model_15_6_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9956348577092837</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9961884374726636</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9965587368370389</v>
+        <v>0.9999562367182823</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9963084810268938</v>
+        <v>0.9999258838420024</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9965605414158333</v>
+        <v>0.9999443430046275</v>
       </c>
       <c r="G11" t="n">
-        <v>0.004074668720782085</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.003557926311010168</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002867006565876452</v>
+        <v>4.645364067944474e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.005214172563281436</v>
+        <v>5.088832309617204e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.004040589564578943</v>
+        <v>4.867098188780838e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.007252057432266388</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M11" t="n">
-        <v>0.06383313184218745</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N11" t="n">
-        <v>1.01164037944191</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O11" t="n">
-        <v>0.06655064041750859</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P11" t="n">
-        <v>77.00593166221513</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q11" t="n">
-        <v>117.2288338828658</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_15_6_14</t>
+          <t>model_15_6_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9955469421975187</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9961143146742398</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9964903099945718</v>
+        <v>0.9999562367182823</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9962352489840591</v>
+        <v>0.9999258838420024</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9964922532207312</v>
+        <v>0.9999443430046275</v>
       </c>
       <c r="G12" t="n">
-        <v>0.004156733991969769</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.003627116689723888</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I12" t="n">
-        <v>0.002924014762386135</v>
+        <v>4.645364067944474e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.005317610879942923</v>
+        <v>5.088832309617204e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.004120812821164529</v>
+        <v>4.867098188780838e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.007325966585047015</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M12" t="n">
-        <v>0.06447273836258058</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N12" t="n">
-        <v>1.011874820806617</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O12" t="n">
-        <v>0.06721747631164288</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P12" t="n">
-        <v>76.96605122228812</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q12" t="n">
-        <v>117.1889534429387</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_15_6_13</t>
+          <t>model_15_6_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9954573334285582</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9960386303397022</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D13" t="n">
-        <v>0.996420550455075</v>
+        <v>0.9999562367182823</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9961608584121765</v>
+        <v>0.9999258838420024</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9964227959946945</v>
+        <v>0.9999443430046275</v>
       </c>
       <c r="G13" t="n">
-        <v>0.004240379844423963</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.003697764693856457</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I13" t="n">
-        <v>0.002982133263732469</v>
+        <v>4.645364067944474e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.005422685588132881</v>
+        <v>5.088832309617204e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>0.004202409425932675</v>
+        <v>4.867098188780838e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00740059258288918</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M13" t="n">
-        <v>0.06511819902626272</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N13" t="n">
-        <v>1.012113777523845</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O13" t="n">
-        <v>0.06789041557206574</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P13" t="n">
-        <v>76.9262048556036</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q13" t="n">
-        <v>117.1491070762542</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9953660172010645</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9959614127903763</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9963494160587206</v>
+        <v>0.9999562367182823</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9960851503126065</v>
+        <v>0.9999258838420024</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9963520592034327</v>
+        <v>0.9999443430046275</v>
       </c>
       <c r="G14" t="n">
-        <v>0.004325619534470233</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.003769843886693549</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I14" t="n">
-        <v>0.003041397194373636</v>
+        <v>4.645364067944474e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.005529621269209534</v>
+        <v>5.088832309617204e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>0.004285509231791586</v>
+        <v>4.867098188780838e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.007475842966662876</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0657694422545169</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N14" t="n">
-        <v>1.012357287463828</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O14" t="n">
-        <v>0.06856938357280604</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P14" t="n">
-        <v>76.88639980778532</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q14" t="n">
-        <v>117.1093020284359</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_15_6_11</t>
+          <t>model_15_6_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.99527279162293</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9958823746415775</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9962769038785525</v>
+        <v>0.9999562367182823</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9960077437594679</v>
+        <v>0.9999258838420024</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9962798128087377</v>
+        <v>0.9999443430046275</v>
       </c>
       <c r="G15" t="n">
-        <v>0.004412641519528879</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.003843622529223439</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I15" t="n">
-        <v>0.003101808992833443</v>
+        <v>4.645364067944474e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.005638955970868617</v>
+        <v>5.088832309617204e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>0.00437038248185103</v>
+        <v>4.867098188780838e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.007551866756715774</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M15" t="n">
-        <v>0.06642771650093716</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N15" t="n">
-        <v>1.01260588900552</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O15" t="n">
-        <v>0.06925568191671194</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P15" t="n">
-        <v>76.84656356964511</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q15" t="n">
-        <v>117.0694657902957</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_15_6_10</t>
+          <t>model_15_6_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9951777413181444</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9958016913389834</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9962028429626347</v>
+        <v>0.9999562367182823</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9959291205382151</v>
+        <v>0.9999258838420024</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9962062858266671</v>
+        <v>0.9999443430046275</v>
       </c>
       <c r="G16" t="n">
-        <v>0.004501366806820022</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.00391893685060732</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I16" t="n">
-        <v>0.00316351108365187</v>
+        <v>4.645364067944474e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.005750009183944229</v>
+        <v>5.088832309617204e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>0.00445676013379805</v>
+        <v>4.867098188780838e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.007628656621876188</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M16" t="n">
-        <v>0.06709222612806957</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N16" t="n">
-        <v>1.012859356484948</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O16" t="n">
-        <v>0.06994848109439594</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P16" t="n">
-        <v>76.80674838695012</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q16" t="n">
-        <v>117.0296506076007</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_15_6_9</t>
+          <t>model_15_6_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.99508079725961</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9957192475661609</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9961273475968105</v>
+        <v>0.9999562367182823</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9958489801422545</v>
+        <v>0.9999258838420024</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9961313381269464</v>
+        <v>0.9999443430046275</v>
       </c>
       <c r="G17" t="n">
-        <v>0.004591859830109614</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.003995894493673796</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I17" t="n">
-        <v>0.003226408252296452</v>
+        <v>4.645364067944474e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0058632053660233</v>
+        <v>5.088832309617204e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>0.004544806809159876</v>
+        <v>4.867098188780838e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.007706196014856405</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M17" t="n">
-        <v>0.06776326313061978</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N17" t="n">
-        <v>1.013117873974373</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O17" t="n">
-        <v>0.07064808553138281</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P17" t="n">
-        <v>76.76694029046536</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q17" t="n">
-        <v>116.989842511116</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_15_6_8</t>
+          <t>model_15_6_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9949819830373524</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9956350605534385</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9960503062766987</v>
+        <v>0.9999562367182823</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9957674208680002</v>
+        <v>0.9999258838420024</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9960549892638974</v>
+        <v>0.9999443430046275</v>
       </c>
       <c r="G18" t="n">
-        <v>0.004684098569143895</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.004074479374667362</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I18" t="n">
-        <v>0.003290593395990781</v>
+        <v>4.645364067944474e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.005978405676030248</v>
+        <v>5.088832309617204e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>0.004634499536010515</v>
+        <v>4.867098188780838e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.007784428209367589</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M18" t="n">
-        <v>0.06844047464142761</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N18" t="n">
-        <v>1.01338137856706</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O18" t="n">
-        <v>0.07135412733822681</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P18" t="n">
-        <v>76.7271635793427</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q18" t="n">
-        <v>116.9500657999933</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_15_6_7</t>
+          <t>model_15_6_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9948811779986956</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9955490048033073</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9959716771089836</v>
+        <v>0.9999562367182823</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9956842348728298</v>
+        <v>0.9999258838420024</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9959770994343071</v>
+        <v>0.9999443430046275</v>
       </c>
       <c r="G19" t="n">
-        <v>0.004778195647900304</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.004154808640003996</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I19" t="n">
-        <v>0.003356101417154248</v>
+        <v>4.645364067944474e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.006095903686151974</v>
+        <v>5.088832309617204e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>0.00472600255165311</v>
+        <v>4.867098188780838e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.007863460598871991</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M19" t="n">
-        <v>0.06912449383467704</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N19" t="n">
-        <v>1.013650192003478</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0720672666446478</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P19" t="n">
-        <v>76.68738456652173</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q19" t="n">
-        <v>116.9102867871724</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_15_6_6</t>
+          <t>model_15_6_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9947783115610686</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9954610197700799</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9958914255238183</v>
+        <v>0.9999562367182823</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9955993129600423</v>
+        <v>0.9999258838420024</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9958975907345322</v>
+        <v>0.9999443430046275</v>
       </c>
       <c r="G20" t="n">
-        <v>0.004874216952110325</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.004236938806425102</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I20" t="n">
-        <v>0.003422961116832933</v>
+        <v>4.645364067944474e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>0.006215853633830377</v>
+        <v>5.088832309617204e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>0.004819407375331654</v>
+        <v>4.867098188780838e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.007943252223011022</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M20" t="n">
-        <v>0.06981559247124045</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N20" t="n">
-        <v>1.013924502503817</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0727877867809411</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P20" t="n">
-        <v>76.64759162528415</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q20" t="n">
-        <v>116.8704938459348</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_15_6_5</t>
+          <t>model_15_6_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9946734000950591</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9953711493124954</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9958096186102774</v>
+        <v>0.9999562367182823</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9955129724316935</v>
+        <v>0.9999258838420024</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9958166777054198</v>
+        <v>0.9999443430046275</v>
       </c>
       <c r="G21" t="n">
-        <v>0.004972147200549035</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.00432082893372317</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I21" t="n">
-        <v>0.003491116601359765</v>
+        <v>4.645364067944474e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>0.006337807338334088</v>
+        <v>5.088832309617204e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>0.004914461969846927</v>
+        <v>4.867098188780838e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.008023838342347215</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M21" t="n">
-        <v>0.07051345403927563</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N21" t="n">
-        <v>1.014204266413176</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O21" t="n">
-        <v>0.07351535776070013</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P21" t="n">
-        <v>76.60780699973812</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q21" t="n">
-        <v>116.8307092203887</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_15_6_4</t>
+          <t>model_15_6_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9945664525945968</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9952794025787275</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9957262294634006</v>
+        <v>0.9999562367182823</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9954250662461868</v>
+        <v>0.9999258838420024</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9957342624100876</v>
+        <v>0.9999443430046275</v>
       </c>
       <c r="G22" t="n">
-        <v>0.005071977997778008</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.004406470482479287</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I22" t="n">
-        <v>0.003560590285962514</v>
+        <v>4.645364067944474e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>0.006461972492014991</v>
+        <v>5.088832309617204e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>0.005011281388988752</v>
+        <v>4.867098188780838e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.008105161092773601</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M22" t="n">
-        <v>0.07121782078790398</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N22" t="n">
-        <v>1.014489459747742</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O22" t="n">
-        <v>0.07424971086005779</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P22" t="n">
-        <v>76.56804879966829</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q22" t="n">
-        <v>116.7909510203189</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_15_6_3</t>
+          <t>model_15_6_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9944573445207036</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9951856152422006</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9956411916733284</v>
+        <v>0.9999562367182823</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9953353480307376</v>
+        <v>0.9999258838420024</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9956501731889184</v>
+        <v>0.9999443430046275</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00517382559546632</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.004494016844338884</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I23" t="n">
-        <v>0.003631437498436284</v>
+        <v>4.645364067944474e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>0.006588697089891654</v>
+        <v>5.088832309617204e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>0.005110067294163969</v>
+        <v>4.867098188780838e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.008187300842077744</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M23" t="n">
-        <v>0.07192930971075921</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N23" t="n">
-        <v>1.014780414611457</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O23" t="n">
-        <v>0.07499148933934408</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P23" t="n">
-        <v>76.52828580731837</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q23" t="n">
-        <v>116.751188027969</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_15_6_2</t>
+          <t>model_15_6_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9943461593068675</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9950899180219759</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9955543099042126</v>
+        <v>0.9999562367182823</v>
       </c>
       <c r="E24" t="n">
-        <v>0.99524429875558</v>
+        <v>0.9999258838420024</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9955646299216008</v>
+        <v>0.9999443430046275</v>
       </c>
       <c r="G24" t="n">
-        <v>0.005277612112115464</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.004583345998796199</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I24" t="n">
-        <v>0.003703820978197808</v>
+        <v>4.645364067944474e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>0.006717301774275789</v>
+        <v>5.088832309617204e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>0.005210561376236799</v>
+        <v>4.867098188780838e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.00827020261555386</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M24" t="n">
-        <v>0.07264717552744542</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N24" t="n">
-        <v>1.01507690851502</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0757399161900337</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P24" t="n">
-        <v>76.4885630701076</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q24" t="n">
-        <v>116.7114652907582</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_15_6_1</t>
+          <t>model_15_6_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9942326606721814</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9949920775358617</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9954658872649812</v>
+        <v>0.9999562367182823</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9951513687394545</v>
+        <v>0.9999258838420024</v>
       </c>
       <c r="F25" t="n">
-        <v>0.995477409636824</v>
+        <v>0.9999443430046275</v>
       </c>
       <c r="G25" t="n">
-        <v>0.005383558105580649</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.004674675797882822</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I25" t="n">
-        <v>0.003777488197251789</v>
+        <v>4.645364067944474e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>0.006848562955355021</v>
+        <v>5.088832309617204e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>0.005313025576303405</v>
+        <v>4.867098188780838e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.008353937029081488</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M25" t="n">
-        <v>0.07337273407459101</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N25" t="n">
-        <v>1.01537957154085</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O25" t="n">
-        <v>0.07649636326664454</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P25" t="n">
-        <v>76.44881153098919</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q25" t="n">
-        <v>116.6717137516398</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_15_6_0</t>
+          <t>model_15_6_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9941169334323702</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C26" t="n">
-        <v>0.994892158624553</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9953756447337707</v>
+        <v>0.9999562367182823</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9950565818237943</v>
+        <v>0.9999258838420024</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9953884277290002</v>
+        <v>0.9999443430046275</v>
       </c>
       <c r="G26" t="n">
-        <v>0.005491584404105695</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.004767945715656152</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I26" t="n">
-        <v>0.003852671616028502</v>
+        <v>4.645364067944474e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>0.006982446957738435</v>
+        <v>5.088832309617204e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>0.005417559286883469</v>
+        <v>4.867098188780838e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.008438458159331245</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M26" t="n">
-        <v>0.07410522521459398</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N26" t="n">
-        <v>1.015688177513679</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O26" t="n">
-        <v>0.07726003807094313</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P26" t="n">
-        <v>76.40907693379877</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q26" t="n">
-        <v>116.6319791544494</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
   </sheetData>
